--- a/natmiOut/OldD2/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.88968875235646</v>
+        <v>7.9131435</v>
       </c>
       <c r="H2">
-        <v>7.88968875235646</v>
+        <v>15.826287</v>
       </c>
       <c r="I2">
-        <v>0.2826464951114627</v>
+        <v>0.2753713503351227</v>
       </c>
       <c r="J2">
-        <v>0.2826464951114627</v>
+        <v>0.2124968264014718</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.14387487871388</v>
+        <v>1.181706333333333</v>
       </c>
       <c r="N2">
-        <v>1.14387487871388</v>
+        <v>3.545119</v>
       </c>
       <c r="O2">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968806</v>
       </c>
       <c r="P2">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968805</v>
       </c>
       <c r="Q2">
-        <v>9.024816764692009</v>
+        <v>9.351011790525501</v>
       </c>
       <c r="R2">
-        <v>9.024816764692009</v>
+        <v>56.106070743153</v>
       </c>
       <c r="S2">
-        <v>0.09436464994226</v>
+        <v>0.08202547365794798</v>
       </c>
       <c r="T2">
-        <v>0.09436464994226</v>
+        <v>0.06329690004126877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.88968875235646</v>
+        <v>7.9131435</v>
       </c>
       <c r="H3">
-        <v>7.88968875235646</v>
+        <v>15.826287</v>
       </c>
       <c r="I3">
-        <v>0.2826464951114627</v>
+        <v>0.2753713503351227</v>
       </c>
       <c r="J3">
-        <v>0.2826464951114627</v>
+        <v>0.2124968264014718</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.28232577494569</v>
+        <v>2.785452333333333</v>
       </c>
       <c r="N3">
-        <v>2.28232577494569</v>
+        <v>8.356356999999999</v>
       </c>
       <c r="O3">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="P3">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="Q3">
-        <v>18.00683999580225</v>
+        <v>22.0416840260765</v>
       </c>
       <c r="R3">
-        <v>18.00683999580225</v>
+        <v>132.250104156459</v>
       </c>
       <c r="S3">
-        <v>0.1882818451692027</v>
+        <v>0.1933458766771748</v>
       </c>
       <c r="T3">
-        <v>0.1882818451692027</v>
+        <v>0.149199926360203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.96480718332229</v>
+        <v>3.299743666666667</v>
       </c>
       <c r="H4">
-        <v>2.96480718332229</v>
+        <v>9.899231</v>
       </c>
       <c r="I4">
-        <v>0.1062136144213604</v>
+        <v>0.114828559503536</v>
       </c>
       <c r="J4">
-        <v>0.1062136144213604</v>
+        <v>0.1329152675744518</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.14387487871388</v>
+        <v>1.181706333333333</v>
       </c>
       <c r="N4">
-        <v>1.14387487871388</v>
+        <v>3.545119</v>
       </c>
       <c r="O4">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968806</v>
       </c>
       <c r="P4">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968805</v>
       </c>
       <c r="Q4">
-        <v>3.391368457232825</v>
+        <v>3.899327989276555</v>
       </c>
       <c r="R4">
-        <v>3.391368457232825</v>
+        <v>35.093951903489</v>
       </c>
       <c r="S4">
-        <v>0.03546058669512715</v>
+        <v>0.03420423719197653</v>
       </c>
       <c r="T4">
-        <v>0.03546058669512715</v>
+        <v>0.03959176495993211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.96480718332229</v>
+        <v>3.299743666666667</v>
       </c>
       <c r="H5">
-        <v>2.96480718332229</v>
+        <v>9.899231</v>
       </c>
       <c r="I5">
-        <v>0.1062136144213604</v>
+        <v>0.114828559503536</v>
       </c>
       <c r="J5">
-        <v>0.1062136144213604</v>
+        <v>0.1329152675744518</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.28232577494569</v>
+        <v>2.785452333333333</v>
       </c>
       <c r="N5">
-        <v>2.28232577494569</v>
+        <v>8.356356999999999</v>
       </c>
       <c r="O5">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="P5">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="Q5">
-        <v>6.766655852240595</v>
+        <v>9.191278695718555</v>
       </c>
       <c r="R5">
-        <v>6.766655852240595</v>
+        <v>82.72150826146699</v>
       </c>
       <c r="S5">
-        <v>0.07075302772623329</v>
+        <v>0.08062432231155947</v>
       </c>
       <c r="T5">
-        <v>0.07075302772623329</v>
+        <v>0.09332350261451969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.53046565299677</v>
+        <v>3.768461</v>
       </c>
       <c r="H6">
-        <v>3.53046565299677</v>
+        <v>11.305383</v>
       </c>
       <c r="I6">
-        <v>0.1264782140655292</v>
+        <v>0.1311395647324286</v>
       </c>
       <c r="J6">
-        <v>0.1264782140655292</v>
+        <v>0.1517954279960391</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14387487871388</v>
+        <v>1.181706333333333</v>
       </c>
       <c r="N6">
-        <v>1.14387487871388</v>
+        <v>3.545119</v>
       </c>
       <c r="O6">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968806</v>
       </c>
       <c r="P6">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968805</v>
       </c>
       <c r="Q6">
-        <v>4.0384109706252</v>
+        <v>4.453214230619666</v>
       </c>
       <c r="R6">
-        <v>4.0384109706252</v>
+        <v>40.078928075577</v>
       </c>
       <c r="S6">
-        <v>0.04222614680188852</v>
+        <v>0.03906283242386598</v>
       </c>
       <c r="T6">
-        <v>0.04222614680188852</v>
+        <v>0.04521564013588652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.53046565299677</v>
+        <v>3.768461</v>
       </c>
       <c r="H7">
-        <v>3.53046565299677</v>
+        <v>11.305383</v>
       </c>
       <c r="I7">
-        <v>0.1264782140655292</v>
+        <v>0.1311395647324286</v>
       </c>
       <c r="J7">
-        <v>0.1264782140655292</v>
+        <v>0.1517954279960391</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.28232577494569</v>
+        <v>2.785452333333333</v>
       </c>
       <c r="N7">
-        <v>2.28232577494569</v>
+        <v>8.356356999999999</v>
       </c>
       <c r="O7">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="P7">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="Q7">
-        <v>8.057672757394995</v>
+        <v>10.49686848552567</v>
       </c>
       <c r="R7">
-        <v>8.057672757394995</v>
+        <v>94.47181636973099</v>
       </c>
       <c r="S7">
-        <v>0.08425206726364072</v>
+        <v>0.09207673230856267</v>
       </c>
       <c r="T7">
-        <v>0.08425206726364072</v>
+        <v>0.1065797878601526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.31499905222956</v>
+        <v>4.346190666666668</v>
       </c>
       <c r="H8">
-        <v>4.31499905222956</v>
+        <v>13.038572</v>
       </c>
       <c r="I8">
-        <v>0.1545839635508685</v>
+        <v>0.1512441159058859</v>
       </c>
       <c r="J8">
-        <v>0.1545839635508685</v>
+        <v>0.1750666578210727</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.14387487871388</v>
+        <v>1.181706333333333</v>
       </c>
       <c r="N8">
-        <v>1.14387487871388</v>
+        <v>3.545119</v>
       </c>
       <c r="O8">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968806</v>
       </c>
       <c r="P8">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968805</v>
       </c>
       <c r="Q8">
-        <v>4.935819017519594</v>
+        <v>5.135921036674223</v>
       </c>
       <c r="R8">
-        <v>4.935819017519594</v>
+        <v>46.22328933006801</v>
       </c>
       <c r="S8">
-        <v>0.05160956126985494</v>
+        <v>0.04505141958326499</v>
       </c>
       <c r="T8">
-        <v>0.05160956126985494</v>
+        <v>0.05214749287466389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.31499905222956</v>
+        <v>4.346190666666668</v>
       </c>
       <c r="H9">
-        <v>4.31499905222956</v>
+        <v>13.038572</v>
       </c>
       <c r="I9">
-        <v>0.1545839635508685</v>
+        <v>0.1512441159058859</v>
       </c>
       <c r="J9">
-        <v>0.1545839635508685</v>
+        <v>0.1750666578210727</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.28232577494569</v>
+        <v>2.785452333333333</v>
       </c>
       <c r="N9">
-        <v>2.28232577494569</v>
+        <v>8.356356999999999</v>
       </c>
       <c r="O9">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="P9">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="Q9">
-        <v>9.848233555769747</v>
+        <v>12.10610693357822</v>
       </c>
       <c r="R9">
-        <v>9.848233555769747</v>
+        <v>108.954962402204</v>
       </c>
       <c r="S9">
-        <v>0.1029744022810136</v>
+        <v>0.1061926963226209</v>
       </c>
       <c r="T9">
-        <v>0.1029744022810136</v>
+        <v>0.1229191649464088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.41455369886727</v>
+        <v>5.590836</v>
       </c>
       <c r="H10">
-        <v>5.41455369886727</v>
+        <v>16.772508</v>
       </c>
       <c r="I10">
-        <v>0.1939752851619838</v>
+        <v>0.1945568229392297</v>
       </c>
       <c r="J10">
-        <v>0.1939752851619838</v>
+        <v>0.22520157259838</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.14387487871388</v>
+        <v>1.181706333333333</v>
       </c>
       <c r="N10">
-        <v>1.14387487871388</v>
+        <v>3.545119</v>
       </c>
       <c r="O10">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968806</v>
       </c>
       <c r="P10">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968805</v>
       </c>
       <c r="Q10">
-        <v>6.193571955581588</v>
+        <v>6.606726309828001</v>
       </c>
       <c r="R10">
-        <v>6.193571955581588</v>
+        <v>59.460536788452</v>
       </c>
       <c r="S10">
-        <v>0.06476078847021345</v>
+        <v>0.05795307149982902</v>
       </c>
       <c r="T10">
-        <v>0.06476078847021345</v>
+        <v>0.06708129091285787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.41455369886727</v>
+        <v>5.590836</v>
       </c>
       <c r="H11">
-        <v>5.41455369886727</v>
+        <v>16.772508</v>
       </c>
       <c r="I11">
-        <v>0.1939752851619838</v>
+        <v>0.1945568229392297</v>
       </c>
       <c r="J11">
-        <v>0.1939752851619838</v>
+        <v>0.22520157259838</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.28232577494569</v>
+        <v>2.785452333333333</v>
       </c>
       <c r="N11">
-        <v>2.28232577494569</v>
+        <v>8.356356999999999</v>
       </c>
       <c r="O11">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="P11">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="Q11">
-        <v>12.35777546675229</v>
+        <v>15.573007181484</v>
       </c>
       <c r="R11">
-        <v>12.35777546675229</v>
+        <v>140.157064633356</v>
       </c>
       <c r="S11">
-        <v>0.1292144966917703</v>
+        <v>0.1366037514394007</v>
       </c>
       <c r="T11">
-        <v>0.1292144966917703</v>
+        <v>0.1581202816855221</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.79911235934922</v>
+        <v>3.817888</v>
       </c>
       <c r="H12">
-        <v>3.79911235934922</v>
+        <v>7.635776</v>
       </c>
       <c r="I12">
-        <v>0.1361024276887954</v>
+        <v>0.1328595865837971</v>
       </c>
       <c r="J12">
-        <v>0.1361024276887954</v>
+        <v>0.1025242476085847</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.14387487871388</v>
+        <v>1.181706333333333</v>
       </c>
       <c r="N12">
-        <v>1.14387487871388</v>
+        <v>3.545119</v>
       </c>
       <c r="O12">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968806</v>
       </c>
       <c r="P12">
-        <v>0.3338610298530217</v>
+        <v>0.2978722134968805</v>
       </c>
       <c r="Q12">
-        <v>4.345709189270991</v>
+        <v>4.511622429557333</v>
       </c>
       <c r="R12">
-        <v>4.345709189270991</v>
+        <v>27.069734577344</v>
       </c>
       <c r="S12">
-        <v>0.04543929667367763</v>
+        <v>0.03957517913999609</v>
       </c>
       <c r="T12">
-        <v>0.04543929667367763</v>
+        <v>0.03053912457227138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.79911235934922</v>
+        <v>3.817888</v>
       </c>
       <c r="H13">
-        <v>3.79911235934922</v>
+        <v>7.635776</v>
       </c>
       <c r="I13">
-        <v>0.1361024276887954</v>
+        <v>0.1328595865837971</v>
       </c>
       <c r="J13">
-        <v>0.1361024276887954</v>
+        <v>0.1025242476085847</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.28232577494569</v>
+        <v>2.785452333333333</v>
       </c>
       <c r="N13">
-        <v>2.28232577494569</v>
+        <v>8.356356999999999</v>
       </c>
       <c r="O13">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="P13">
-        <v>0.6661389701469784</v>
+        <v>0.7021277865031195</v>
       </c>
       <c r="Q13">
-        <v>8.670812059657457</v>
+        <v>10.63454503800533</v>
       </c>
       <c r="R13">
-        <v>8.670812059657457</v>
+        <v>63.807270228032</v>
       </c>
       <c r="S13">
-        <v>0.09066313101511773</v>
+        <v>0.09328440744380098</v>
       </c>
       <c r="T13">
-        <v>0.09066313101511773</v>
+        <v>0.0719851230363133</v>
       </c>
     </row>
   </sheetData>
